--- a/MODOT/src/test/resources/DataProvider/RWC.xlsx
+++ b/MODOT/src/test/resources/DataProvider/RWC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\MODOT\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BC7188-2966-436C-94F2-C5A9E65319E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30425F52-33D2-4E00-9C74-0C80A79772E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="3" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
   <si>
     <t>Account#</t>
   </si>
@@ -330,13 +330,91 @@
   </si>
   <si>
     <t>80000</t>
+  </si>
+  <si>
+    <t>30941</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>987897465</t>
+  </si>
+  <si>
+    <t>Accounts Comments</t>
+  </si>
+  <si>
+    <t>Expiration Date</t>
+  </si>
+  <si>
+    <t>6302022</t>
+  </si>
+  <si>
+    <t>FOR - FOR HIRE (FH)</t>
+  </si>
+  <si>
+    <t>Fleet type</t>
+  </si>
+  <si>
+    <t>A - ALL</t>
+  </si>
+  <si>
+    <t>Commodity Class</t>
+  </si>
+  <si>
+    <t>AMBER WOODROME</t>
+  </si>
+  <si>
+    <t>Contact Name</t>
+  </si>
+  <si>
+    <t>913-321-1716</t>
+  </si>
+  <si>
+    <t>Primary Phone</t>
+  </si>
+  <si>
+    <t>08012021</t>
+  </si>
+  <si>
+    <t>Effective Date</t>
+  </si>
+  <si>
+    <t>01012019</t>
+  </si>
+  <si>
+    <t>First Operated Date</t>
+  </si>
+  <si>
+    <t>TEST@CELTIC.COM</t>
+  </si>
+  <si>
+    <t>Estimated Distance</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Actual Distance Reporting Period</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>AZ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +432,14 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -381,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -398,6 +484,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -713,10 +806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775FA5FC-25F4-4C8C-A1CF-D1415B6123E3}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -752,8 +845,23 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -875,10 +983,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C385D8-7DD9-4B6F-827C-3DFB36D19C92}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -893,6 +1001,11 @@
         <v>5</v>
       </c>
       <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
+        <v>98</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -902,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF704C85-D873-414A-AA0E-281E6DD1C08A}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -913,7 +1026,7 @@
     <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:15" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -938,8 +1051,29 @@
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -964,26 +1098,81 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+    </row>
+    <row r="3" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A3" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{0594252D-DADF-48CC-BCD9-6519A34945AB}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{7896091F-ABD3-4C2E-8C23-245DF9A4F290}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842739D-F428-48DB-A05D-D93FC3306262}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -993,16 +1182,39 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="8" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1012,29 +1224,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCF9E6-80A0-4CF6-9F60-DA959CA4A335}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
@@ -1046,6 +1267,29 @@
       </c>
       <c r="D2" s="5" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/MODOT/src/test/resources/DataProvider/RWC.xlsx
+++ b/MODOT/src/test/resources/DataProvider/RWC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\MODOT\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30425F52-33D2-4E00-9C74-0C80A79772E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E9E7B-12F2-400E-A1C1-47CA58B62FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" activeTab="4" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="4" activeTab="11" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="VehicleDeleteTab" sheetId="12" r:id="rId8"/>
     <sheet name="BillingTab" sheetId="5" r:id="rId9"/>
     <sheet name="Payment" sheetId="6" r:id="rId10"/>
-    <sheet name="inventoryTab" sheetId="7" r:id="rId11"/>
+    <sheet name="InventoryTab" sheetId="7" r:id="rId11"/>
+    <sheet name="Finance" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="103">
   <si>
     <t>Account#</t>
   </si>
@@ -125,12 +126,6 @@
     <t>P - POWER UNIT</t>
   </si>
   <si>
-    <t>605T6</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Y - YES</t>
   </si>
   <si>
@@ -209,9 +204,6 @@
     <t>FeeOverrideReasonComments</t>
   </si>
   <si>
-    <t>17313</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -221,15 +213,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>606T6</t>
-  </si>
-  <si>
-    <t>6T026</t>
-  </si>
-  <si>
-    <t>6046</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
@@ -239,15 +222,6 @@
     <t>Distance tab Comments</t>
   </si>
   <si>
-    <t>Paymentamountcash</t>
-  </si>
-  <si>
-    <t>1208.53</t>
-  </si>
-  <si>
-    <t>Paymentamountcheque</t>
-  </si>
-  <si>
     <t>PaymentChequeNo</t>
   </si>
   <si>
@@ -272,9 +246,6 @@
     <t>Inventory_Subtype</t>
   </si>
   <si>
-    <t>11AA1A</t>
-  </si>
-  <si>
     <t>FromNo</t>
   </si>
   <si>
@@ -305,9 +276,6 @@
     <t>Payment receipt</t>
   </si>
   <si>
-    <t>66000</t>
-  </si>
-  <si>
     <t>VehicleBodyType</t>
   </si>
   <si>
@@ -320,101 +288,80 @@
     <t>unladenWeight</t>
   </si>
   <si>
-    <t>4-66000</t>
-  </si>
-  <si>
     <t>Vehicle_WeightGroupNo</t>
   </si>
   <si>
     <t>CO Special Truck</t>
   </si>
   <si>
-    <t>80000</t>
-  </si>
-  <si>
-    <t>30941</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>987897465</t>
-  </si>
-  <si>
-    <t>Accounts Comments</t>
-  </si>
-  <si>
-    <t>Expiration Date</t>
-  </si>
-  <si>
-    <t>6302022</t>
-  </si>
-  <si>
-    <t>FOR - FOR HIRE (FH)</t>
-  </si>
-  <si>
-    <t>Fleet type</t>
-  </si>
-  <si>
-    <t>A - ALL</t>
-  </si>
-  <si>
-    <t>Commodity Class</t>
-  </si>
-  <si>
-    <t>AMBER WOODROME</t>
-  </si>
-  <si>
-    <t>Contact Name</t>
-  </si>
-  <si>
-    <t>913-321-1716</t>
-  </si>
-  <si>
-    <t>Primary Phone</t>
-  </si>
-  <si>
-    <t>08012021</t>
-  </si>
-  <si>
-    <t>Effective Date</t>
-  </si>
-  <si>
-    <t>01012019</t>
-  </si>
-  <si>
-    <t>First Operated Date</t>
-  </si>
-  <si>
-    <t>TEST@CELTIC.COM</t>
-  </si>
-  <si>
-    <t>Estimated Distance</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>Actual Distance Reporting Period</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>AZ</t>
+    <t>11113</t>
+  </si>
+  <si>
+    <t>6266</t>
+  </si>
+  <si>
+    <t>6326</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>6226</t>
+  </si>
+  <si>
+    <t>6286</t>
+  </si>
+  <si>
+    <t>6346</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>8-26000</t>
+  </si>
+  <si>
+    <t>Type plate is not available for User: internaluser, Office Location: HQ.</t>
+  </si>
+  <si>
+    <t>HardstopMessage</t>
+  </si>
+  <si>
+    <t>NNAANA</t>
+  </si>
+  <si>
+    <t>37703</t>
+  </si>
+  <si>
+    <t>InstallmentPaymentCash</t>
+  </si>
+  <si>
+    <t>197.67</t>
+  </si>
+  <si>
+    <t>FleetNewYear</t>
+  </si>
+  <si>
+    <t>Added SuccessMessage</t>
+  </si>
+  <si>
+    <t>ENTINV06 : [I] Inventory has been added successfully.</t>
+  </si>
+  <si>
+    <t>ENTINV40 : [I] Inventory has been assigned successfully.</t>
+  </si>
+  <si>
+    <t>AssignedSuccessMessage</t>
+  </si>
+  <si>
+    <t>99CD9E</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,14 +379,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -467,7 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -484,13 +423,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -806,15 +738,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{775FA5FC-25F4-4C8C-A1CF-D1415B6123E3}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -830,33 +762,159 @@
       <c r="E1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>82</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>96</v>
+      <c r="F2" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C0865D-51BA-4EBA-8F05-EB6A1F6AB5E9}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="85.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DDCC09-7743-41A7-AF6E-E431FA46AFBB}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="6" max="6" width="34.86328125" customWidth="1"/>
+    <col min="7" max="7" width="29.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="C4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -865,66 +923,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45C0865D-51BA-4EBA-8F05-EB6A1F6AB5E9}">
-  <dimension ref="A1:H2"/>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4984D0D0-0845-4480-80FB-D983B0221911}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="85.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>81</v>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" s="5" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -932,61 +948,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DDCC09-7743-41A7-AF6E-E431FA46AFBB}">
-  <dimension ref="A1:E2"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C385D8-7DD9-4B6F-827C-3DFB36D19C92}">
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D1" t="s">
-        <v>77</v>
-      </c>
-      <c r="E1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79C385D8-7DD9-4B6F-827C-3DFB36D19C92}">
-  <dimension ref="A1:F3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1002,11 +969,6 @@
       </c>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1015,10 +977,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF704C85-D873-414A-AA0E-281E6DD1C08A}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1026,7 +988,7 @@
     <col min="1" max="1" width="11.796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1051,29 +1013,8 @@
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
@@ -1098,81 +1039,26 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M3" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{0594252D-DADF-48CC-BCD9-6519A34945AB}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{7896091F-ABD3-4C2E-8C23-245DF9A4F290}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6842739D-F428-48DB-A05D-D93FC3306262}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="57" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>20</v>
       </c>
@@ -1182,39 +1068,16 @@
       <c r="C1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="57" x14ac:dyDescent="0.45">
-      <c r="A3" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" t="s">
-        <v>117</v>
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1224,72 +1087,40 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ABCF9E6-80A0-4CF6-9F60-DA959CA4A335}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="D1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1302,67 +1133,67 @@
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:12" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>93</v>
+        <v>76</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>16</v>
@@ -1371,16 +1202,16 @@
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>89</v>
+        <v>77</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>78</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1391,10 +1222,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C05706F7-92D1-4F40-8339-433B7AA2EF90}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1402,21 +1233,25 @@
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>58</v>
+        <v>87</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1425,26 +1260,27 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K29" sqref="K29"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" s="5" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>59</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1460,48 +1296,48 @@
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>52</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/MODOT/src/test/resources/DataProvider/RWC.xlsx
+++ b/MODOT/src/test/resources/DataProvider/RWC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkingDirectory\MODOT\src\test\resources\DataProvider\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5E9E7B-12F2-400E-A1C1-47CA58B62FA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B458FD0-94F6-4C70-9861-9FB21F98E898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="4" activeTab="11" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" firstSheet="4" activeTab="10" xr2:uid="{43A65F78-DFA8-4E7B-9052-B95A70F6C917}"/>
   </bookViews>
   <sheets>
     <sheet name="PreSetup" sheetId="9" r:id="rId1"/>
@@ -354,7 +354,7 @@
     <t>AssignedSuccessMessage</t>
   </si>
   <si>
-    <t>99CD9E</t>
+    <t>99EF9G</t>
   </si>
 </sst>
 </file>
@@ -856,7 +856,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43DDCC09-7743-41A7-AF6E-E431FA46AFBB}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -927,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4984D0D0-0845-4480-80FB-D983B0221911}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
